--- a/Project_Plan/Yeni Microsoft Office Excel Çalışma Sayfası.xlsx
+++ b/Project_Plan/Yeni Microsoft Office Excel Çalışma Sayfası.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="8010"/>
@@ -16,46 +16,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Task 1</t>
-  </si>
-  <si>
-    <t>Task 2</t>
-  </si>
-  <si>
-    <t>Task 3</t>
-  </si>
-  <si>
-    <t>Task 4</t>
-  </si>
-  <si>
-    <t>Task 5</t>
-  </si>
-  <si>
-    <t>Task 6</t>
-  </si>
-  <si>
-    <t>Task 7</t>
-  </si>
-  <si>
-    <t>Task 8</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>Days to Complete</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Proje Planı Hazırlanması</t>
+  </si>
+  <si>
+    <t>2-13 ocak final</t>
+  </si>
+  <si>
+    <t>22-26 ocak büt</t>
+  </si>
+  <si>
+    <t>Gereksinim Analizi</t>
+  </si>
+  <si>
+    <t>Ara Sınav Haftası</t>
+  </si>
+  <si>
+    <t>Mimari Dizayn</t>
+  </si>
+  <si>
+    <t>Mimari Dizayndaki Eksiklerin Belirlenmesi</t>
+  </si>
+  <si>
+    <t>Eksiklerin Giderilmesi</t>
+  </si>
+  <si>
+    <t>Sunum ve Raporların Hazırlanması</t>
+  </si>
+  <si>
+    <t>Tasarım Sunumu</t>
+  </si>
+  <si>
+    <t>Tasarım Teslimi</t>
+  </si>
+  <si>
+    <t>Başlangıç Tarihi</t>
+  </si>
+  <si>
+    <t>Tamamlama Gün Sayısı</t>
+  </si>
+  <si>
+    <t>İş Parçacıkları</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,12 +104,30 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="tr-TR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -113,26 +140,35 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="tr-TR"/>
-              <a:t>Gantt</a:t>
+              <a:t>Tasarım Projesi Zaman Çizelgesi</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="tr-TR" baseline="0"/>
-              <a:t> Chart</a:t>
-            </a:r>
-            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -142,7 +178,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Start Date</c:v>
+                  <c:v>Başlangıç Tarihi</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -150,67 +186,74 @@
           <c:spPr>
             <a:noFill/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sayfa1!$A$2:$A$9</c:f>
+              <c:f>Sayfa1!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>Task 1</c:v>
+                  <c:v>Proje Planı Hazırlanması</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Task 2</c:v>
+                  <c:v>Gereksinim Analizi</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Task 3</c:v>
+                  <c:v>Ara Sınav Haftası</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Task 4</c:v>
+                  <c:v>Mimari Dizayn</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Task 5</c:v>
+                  <c:v>Mimari Dizayndaki Eksiklerin Belirlenmesi</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Task 6</c:v>
+                  <c:v>Eksiklerin Giderilmesi</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Task 7</c:v>
+                  <c:v>Sunum ve Raporların Hazırlanması</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Task 8</c:v>
+                  <c:v>Tasarım Teslimi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Tasarım Sunumu</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sayfa1!$B$2:$B$9</c:f>
+              <c:f>Sayfa1!$B$2:$B$10</c:f>
               <c:numCache>
-                <c:formatCode>d/mmm</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>43025</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43039</c:v>
+                  <c:v>43037</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43044</c:v>
+                  <c:v>43050</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43070</c:v>
+                  <c:v>43059</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43090</c:v>
+                  <c:v>43073</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43101</c:v>
+                  <c:v>43077</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43108</c:v>
+                  <c:v>43082</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43115</c:v>
+                  <c:v>43098</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -225,111 +268,132 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Days to Complete</c:v>
+                  <c:v>Tamamlama Gün Sayısı</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sayfa1!$A$2:$A$9</c:f>
+              <c:f>Sayfa1!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>Task 1</c:v>
+                  <c:v>Proje Planı Hazırlanması</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Task 2</c:v>
+                  <c:v>Gereksinim Analizi</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Task 3</c:v>
+                  <c:v>Ara Sınav Haftası</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Task 4</c:v>
+                  <c:v>Mimari Dizayn</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Task 5</c:v>
+                  <c:v>Mimari Dizayndaki Eksiklerin Belirlenmesi</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Task 6</c:v>
+                  <c:v>Eksiklerin Giderilmesi</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Task 7</c:v>
+                  <c:v>Sunum ve Raporların Hazırlanması</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Task 8</c:v>
+                  <c:v>Tasarım Teslimi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Tasarım Sunumu</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sayfa1!$C$2:$C$9</c:f>
+              <c:f>Sayfa1!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="95"/>
         <c:gapDepth val="95"/>
         <c:shape val="box"/>
-        <c:axId val="82723584"/>
-        <c:axId val="117928320"/>
+        <c:axId val="165611312"/>
+        <c:axId val="165611872"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="82723584"/>
+        <c:axId val="165611312"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117928320"/>
+        <c:crossAx val="165611872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117928320"/>
+        <c:axId val="165611872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="43125"/>
           <c:min val="43025"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="t"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="d/mmm" sourceLinked="1"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82723584"/>
+        <c:crossAx val="165611312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -341,6 +405,8 @@
       </c:dTable>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -386,9 +452,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ofis Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
-    <a:clrScheme name="Ofis">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -426,9 +492,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Ofis">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -460,9 +526,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -494,9 +561,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Ofis">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -669,31 +737,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -704,85 +773,109 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>43039</v>
+        <v>43037</v>
       </c>
       <c r="C3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>43044</v>
+        <v>43050</v>
       </c>
       <c r="C4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>43070</v>
+        <v>43059</v>
       </c>
       <c r="C5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43073</v>
+      </c>
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>43090</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>43101</v>
+        <v>43077</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>43108</v>
+        <v>43082</v>
       </c>
       <c r="C8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>43115</v>
+        <v>43098</v>
       </c>
       <c r="C9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43110</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -792,12 +885,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -805,12 +898,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
